--- a/pfe/utilisateur.xlsx
+++ b/pfe/utilisateur.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nom</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">civilite </t>
   </si>
 </sst>
 </file>
@@ -365,35 +368,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
